--- a/test_analisis.xlsx
+++ b/test_analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F5DC2-8B08-4D49-AB13-1279A12F8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18813A24-0766-4AD2-BBF0-3D79BB9FF3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAD1E7D8-E35B-F440-ADA5-639D466DF53E}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$145</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,21 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>最高点</t>
-    <rPh sb="0" eb="3">
-      <t>サイコウテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最低点</t>
-    <rPh sb="0" eb="3">
-      <t>サイテイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>中央値</t>
     <rPh sb="0" eb="3">
@@ -105,6 +92,23 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>最大値</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最小値</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -142,12 +146,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +185,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -256,7 +272,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -409,7 +425,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -599,7 +615,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -752,7 +768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$49</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1234,7 +1250,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1387,7 +1403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$49</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1730,7 +1746,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1740,11 +1758,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1752,7 +1770,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$49</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1905,7 +1923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$49</c:f>
+              <c:f>Sheet1!$G$2:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2081,19 +2099,17 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2246,7 +2262,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$49</c:f>
+              <c:f>Sheet1!$F$2:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2580,11 +2596,11 @@
             </a:ln>
           </cx:spPr>
         </cx:plotSurface>
-        <cx:series layoutId="clusteredColumn" uniqueId="{4BE08CA5-3F90-40D8-BA46-D81D500E3330}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{D7294BD4-65F9-4942-8DC2-D4E055CED8A5}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" overflow="auto">
-              <cx:binSize val="3"/>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -4822,16 +4838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4867,8 +4883,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4010026" y="15159037"/>
-              <a:ext cx="10658475" cy="2743200"/>
+              <a:off x="10382251" y="4233862"/>
+              <a:ext cx="10820400" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4900,16 +4916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4936,16 +4952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>242887</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4972,16 +4988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5306,1451 +5322,3827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79491E23-EA71-7045-A889-4047F7229E03}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B2">
+      <c r="A2" s="4">
         <v>62</v>
       </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <f t="shared" ref="C2:C65" si="0">(B2-0.5)/$J$2</f>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D49" si="0">(C2-0.5)/$K$2</f>
-        <v>1.0416666666666666E-2</v>
+        <f>SMALL($A$2:$A$49,B2)</f>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
-        <f>SMALL($B$2:$B$49,C2)</f>
+        <f>_xlfn.NORM.INV(C2,$J$3,$J$4)</f>
+        <v>44.205406643280824</v>
+      </c>
+      <c r="F2" s="3">
+        <f>_xlfn.NORM.DIST(D2,$J$3,$J$4,FALSE)</f>
+        <v>1.2465294266996566E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <f>_xlfn.NORM.DIST(E2,$J$3,$J$4,FALSE)</f>
+        <v>2.706045938601583E-3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>COUNT(A2:A145)</f>
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>MEDIAN(A2:A145)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>41</v>
       </c>
-      <c r="F2" s="3">
-        <f>_xlfn.NORM.INV(D2,$K$3,$K$4)</f>
-        <v>44.205406643280824</v>
-      </c>
-      <c r="G2" s="3">
-        <f>_xlfn.NORM.DIST(E2,$K$3,$K$4,FALSE)</f>
-        <v>1.2465294266996566E-3</v>
-      </c>
-      <c r="H2" s="3">
-        <f>_xlfn.NORM.DIST(F2,$K$3,$K$4,FALSE)</f>
-        <v>2.706045938601583E-3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <v>41</v>
+      <c r="B3" s="3">
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
+      <c r="D3" s="3">
+        <f>SMALL($A$2:$A$49,B3)</f>
+        <v>43</v>
+      </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E49" si="1">SMALL($B$2:$B$49,C3)</f>
-        <v>43</v>
+        <f t="shared" ref="E3:E66" si="1">_xlfn.NORM.INV(C3,$J$3,$J$4)</f>
+        <v>48.780397584203186</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F49" si="2">_xlfn.NORM.INV(D3,$K$3,$K$4)</f>
-        <v>48.780397584203186</v>
+        <f t="shared" ref="F3:F66" si="2">_xlfn.NORM.DIST(D3,$J$3,$J$4,FALSE)</f>
+        <v>2.0453552374110231E-3</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G49" si="3">_xlfn.NORM.DIST(E3,$K$3,$K$4,FALSE)</f>
-        <v>2.0453552374110231E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H49" si="4">_xlfn.NORM.DIST(F3,$K$3,$K$4,FALSE)</f>
+        <f t="shared" ref="G3:G66" si="3">_xlfn.NORM.DIST(E3,$J$3,$J$4,FALSE)</f>
         <v>6.8960168994314144E-3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f>AVERAGE(A2:A145)</f>
+        <v>67.791666666666671</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f>MAX(A2:A145)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
-        <v>67.791666666666671</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>76</v>
-      </c>
       <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>5.2083333333333336E-2</v>
       </c>
+      <c r="D4" s="3">
+        <f>SMALL($A$2:$A$49,B4)</f>
+        <v>44</v>
+      </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>51.20691483377648</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="2"/>
-        <v>51.20691483377648</v>
+        <v>2.5825450633501748E-3</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="3"/>
-        <v>2.5825450633501748E-3</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="4"/>
         <v>1.0438989808332371E-2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.STDEV.P(A2:A145)</f>
+        <v>10.20612220951501</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f>MIN(A2:A145)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>10.20612220951501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>67</v>
-      </c>
       <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>7.2916666666666671E-2</v>
       </c>
+      <c r="D5" s="3">
+        <f>SMALL($A$2:$A$49,B5)</f>
+        <v>46</v>
+      </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>52.947804929470152</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="2"/>
-        <v>52.947804929470152</v>
+        <v>4.0003532303986523E-3</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>4.0003532303986523E-3</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="4"/>
         <v>1.3574299351018377E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6">
+      <c r="A6" s="5">
         <v>67</v>
       </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
       <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
+      <c r="D6" s="3">
+        <f>SMALL($A$2:$A$49,B6)</f>
+        <v>53</v>
+      </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54.339886375314236</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
-        <v>54.339886375314236</v>
+        <v>1.367546227095926E-2</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="3"/>
-        <v>1.367546227095926E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="4"/>
         <v>1.6399529185562114E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7">
+      <c r="A7" s="5">
         <v>68</v>
       </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
       <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.11458333333333333</v>
       </c>
+      <c r="D7" s="3">
+        <f>SMALL($A$2:$A$49,B7)</f>
+        <v>56</v>
+      </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55.518720377297946</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>55.518720377297946</v>
+        <v>2.0053616908755855E-2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>2.0053616908755855E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="4"/>
         <v>1.896918703487312E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8">
+      <c r="A8" s="5">
         <v>60</v>
       </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
       <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.13541666666666666</v>
       </c>
+      <c r="D8" s="3">
+        <f>SMALL($A$2:$A$49,B8)</f>
+        <v>60</v>
+      </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>56.553241037744591</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>56.553241037744591</v>
+        <v>2.920721590286425E-2</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>2.920721590286425E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="4"/>
         <v>2.1318351480292333E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9">
+      <c r="A9" s="5">
         <v>72</v>
       </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
       <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
+      <c r="D9" s="3">
+        <f>SMALL($A$2:$A$49,B9)</f>
+        <v>60</v>
+      </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>57.483583568896705</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>57.483583568896705</v>
+        <v>2.920721590286425E-2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>2.920721590286425E-2</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
         <v>2.3471546913443678E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
+      <c r="A10" s="5">
         <v>44</v>
       </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
       <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.17708333333333334</v>
       </c>
+      <c r="D10" s="3">
+        <f>SMALL($A$2:$A$49,B10)</f>
+        <v>62</v>
+      </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>58.335310696959205</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>58.335310696959205</v>
+        <v>3.3275386251607517E-2</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="3"/>
-        <v>3.3275386251607517E-2</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
         <v>2.5446877082472445E-2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11">
+      <c r="A11" s="5">
         <v>64</v>
       </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
       <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.19791666666666666</v>
       </c>
+      <c r="D11" s="3">
+        <f>SMALL($A$2:$A$49,B11)</f>
+        <v>62</v>
+      </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59.125789227849324</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>59.125789227849324</v>
+        <v>3.3275386251607517E-2</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>3.3275386251607517E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
         <v>2.7258224946482241E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12">
+      <c r="A12" s="5">
         <v>62</v>
       </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
       <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>0.21875</v>
       </c>
+      <c r="D12" s="3">
+        <f>SMALL($A$2:$A$49,B12)</f>
+        <v>62</v>
+      </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59.867411286264044</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>59.867411286264044</v>
+        <v>3.3275386251607517E-2</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="3"/>
-        <v>3.3275386251607517E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="4"/>
         <v>2.8916536055444093E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13">
+      <c r="A13" s="5">
         <v>63</v>
       </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
       <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0.23958333333333334</v>
       </c>
+      <c r="D13" s="3">
+        <f>SMALL($A$2:$A$49,B13)</f>
+        <v>63</v>
+      </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>60.569370535564772</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>60.569370535564772</v>
+        <v>3.5009477787382358E-2</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>3.5009477787382358E-2</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="4"/>
         <v>3.0430619478248981E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14">
+      <c r="A14" s="5">
         <v>64</v>
       </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
       <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0.26041666666666669</v>
       </c>
+      <c r="D14" s="3">
+        <f>SMALL($A$2:$A$49,B14)</f>
+        <v>63</v>
+      </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>61.238709804585426</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>61.238709804585426</v>
+        <v>3.5009477787382358E-2</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>3.5009477787382358E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="4"/>
         <v>3.1807674085480436E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B15">
+      <c r="A15" s="5">
         <v>60</v>
       </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
       <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
+      <c r="D15" s="3">
+        <f>SMALL($A$2:$A$49,B15)</f>
+        <v>64</v>
+      </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>61.880973043225794</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>61.880973043225794</v>
+        <v>3.6482018867399178E-2</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>3.6482018867399178E-2</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
         <v>3.3053648655301061E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16">
+      <c r="A16" s="5">
         <v>76</v>
       </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
       <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>0.30208333333333331</v>
       </c>
+      <c r="D16" s="3">
+        <f>SMALL($A$2:$A$49,B16)</f>
+        <v>64</v>
+      </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>62.500629321044713</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>62.500629321044713</v>
+        <v>3.6482018867399178E-2</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>3.6482018867399178E-2</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
         <v>3.4173496365455372E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
         <v>65</v>
       </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
       <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>0.32291666666666669</v>
       </c>
+      <c r="D17" s="3">
+        <f>SMALL($A$2:$A$49,B17)</f>
+        <v>64</v>
+      </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63.101359019739192</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
-        <v>63.101359019739192</v>
+        <v>3.6482018867399178E-2</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>3.6482018867399178E-2</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
         <v>3.517135936584663E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
         <v>71</v>
       </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
       <c r="C18" s="3">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0.34375</v>
       </c>
+      <c r="D18" s="3">
+        <f>SMALL($A$2:$A$49,B18)</f>
+        <v>65</v>
+      </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>63.686253341207745</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>63.686253341207745</v>
+        <v>3.7653278624333611E-2</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="3"/>
-        <v>3.7653278624333611E-2</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="4"/>
         <v>3.6050705421385207E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
         <v>64</v>
       </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
       <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>0.36458333333333331</v>
       </c>
+      <c r="D19" s="3">
+        <f>SMALL($A$2:$A$49,B19)</f>
+        <v>66</v>
+      </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>64.257957459244835</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>64.257957459244835</v>
+        <v>3.8490844152200811E-2</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="3"/>
-        <v>3.8490844152200811E-2</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="4"/>
         <v>3.6814430677366228E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
         <v>56</v>
       </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
       <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
       </c>
+      <c r="D20" s="3">
+        <f>SMALL($A$2:$A$49,B20)</f>
+        <v>67</v>
+      </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>64.818776022031344</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>64.818776022031344</v>
+        <v>3.8971110119221698E-2</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="3"/>
-        <v>3.8971110119221698E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
         <v>3.7464937803801911E-2</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
         <v>74</v>
       </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
       <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.40625</v>
       </c>
+      <c r="D21" s="3">
+        <f>SMALL($A$2:$A$49,B21)</f>
+        <v>67</v>
+      </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>65.370752950502322</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>65.370752950502322</v>
+        <v>3.8971110119221698E-2</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="3"/>
-        <v>3.8971110119221698E-2</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
         <v>3.8004195768478244E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
         <v>75</v>
       </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
       <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>0.42708333333333331</v>
       </c>
+      <c r="D22" s="3">
+        <f>SMALL($A$2:$A$49,B22)</f>
+        <v>67</v>
+      </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>65.915733406821118</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>65.915733406821118</v>
+        <v>3.8971110119221698E-2</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="3"/>
-        <v>3.8971110119221698E-2</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
         <v>3.8433785539769991E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
         <v>70</v>
       </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
       <c r="C23" s="3">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
       </c>
+      <c r="D23" s="3">
+        <f>SMALL($A$2:$A$49,B23)</f>
+        <v>67</v>
+      </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66.455413287136778</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>66.455413287136778</v>
+        <v>3.8971110119221698E-2</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="3"/>
-        <v>3.8971110119221698E-2</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="4"/>
         <v>3.8754934716935911E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
         <v>76</v>
       </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
       <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>0.46875</v>
       </c>
+      <c r="D24" s="3">
+        <f>SMALL($A$2:$A$49,B24)</f>
+        <v>67</v>
+      </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66.991379999569602</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>66.991379999569602</v>
+        <v>3.8971110119221698E-2</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="3"/>
-        <v>3.8971110119221698E-2</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="4"/>
         <v>3.8968543186005865E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
         <v>66</v>
       </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
       <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>0.48958333333333331</v>
       </c>
+      <c r="D25" s="3">
+        <f>SMALL($A$2:$A$49,B25)</f>
+        <v>68</v>
+      </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67.525147269335378</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>67.525147269335378</v>
+        <v>3.9080383960770959E-2</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="3"/>
-        <v>3.9080383960770959E-2</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="4"/>
         <v>3.9075201256614053E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
         <v>67</v>
       </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
       <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>0.51041666666666663</v>
       </c>
+      <c r="D26" s="3">
+        <f>SMALL($A$2:$A$49,B26)</f>
+        <v>68</v>
+      </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>68.058186063997965</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="2"/>
-        <v>68.058186063997965</v>
+        <v>3.9080383960770959E-2</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="3"/>
-        <v>3.9080383960770959E-2</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="4"/>
         <v>3.9075201256614053E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
         <v>78</v>
       </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
       <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
+      <c r="D27" s="3">
+        <f>SMALL($A$2:$A$49,B27)</f>
+        <v>68</v>
+      </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>68.59195333376374</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>68.59195333376374</v>
+        <v>3.9080383960770959E-2</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="3"/>
-        <v>3.9080383960770959E-2</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="4"/>
         <v>3.8968543186005865E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
         <v>80</v>
       </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
       <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>0.55208333333333337</v>
       </c>
+      <c r="D28" s="3">
+        <f>SMALL($A$2:$A$49,B28)</f>
+        <v>70</v>
+      </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69.127920046196579</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="2"/>
-        <v>69.127920046196579</v>
+        <v>3.8184140736698693E-2</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="3"/>
-        <v>3.8184140736698693E-2</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="4"/>
         <v>3.8754934716935897E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
         <v>68</v>
       </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
       <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>0.57291666666666663</v>
       </c>
+      <c r="D29" s="3">
+        <f>SMALL($A$2:$A$49,B29)</f>
+        <v>70</v>
+      </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69.66759992651221</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="2"/>
-        <v>69.66759992651221</v>
+        <v>3.8184140736698693E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="3"/>
-        <v>3.8184140736698693E-2</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="4"/>
         <v>3.8433785539770005E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
         <v>77</v>
       </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
       <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>0.59375</v>
       </c>
+      <c r="D30" s="3">
+        <f>SMALL($A$2:$A$49,B30)</f>
+        <v>71</v>
+      </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70.212580382831021</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="2"/>
-        <v>70.212580382831021</v>
+        <v>3.7204132064261666E-2</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="3"/>
-        <v>3.7204132064261666E-2</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="4"/>
         <v>3.8004195768478244E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
         <v>71</v>
       </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
       <c r="C31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>0.61458333333333337</v>
       </c>
+      <c r="D31" s="3">
+        <f>SMALL($A$2:$A$49,B31)</f>
+        <v>71</v>
+      </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70.764557311301999</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>70.764557311301999</v>
+        <v>3.7204132064261666E-2</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="3"/>
-        <v>3.7204132064261666E-2</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="4"/>
         <v>3.7464937803801911E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
         <v>78</v>
       </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
       <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>0.63541666666666663</v>
       </c>
+      <c r="D32" s="3">
+        <f>SMALL($A$2:$A$49,B32)</f>
+        <v>71</v>
+      </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>71.325375874088508</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>71.325375874088508</v>
+        <v>3.7204132064261666E-2</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="3"/>
-        <v>3.7204132064261666E-2</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="4"/>
         <v>3.6814430677366228E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
         <v>70</v>
       </c>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
       <c r="C33" s="3">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>0.65625</v>
       </c>
+      <c r="D33" s="3">
+        <f>SMALL($A$2:$A$49,B33)</f>
+        <v>72</v>
+      </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71.897079992125597</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>71.897079992125597</v>
+        <v>3.5902941883901238E-2</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="3"/>
-        <v>3.5902941883901238E-2</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="4"/>
         <v>3.6050705421385207E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>62</v>
       </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
       <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>0.67708333333333337</v>
       </c>
+      <c r="D34" s="3">
+        <f>SMALL($A$2:$A$49,B34)</f>
+        <v>74</v>
+      </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>72.481974313594151</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
-        <v>72.481974313594151</v>
+        <v>3.2486271089391623E-2</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="3"/>
-        <v>3.2486271089391623E-2</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="4"/>
         <v>3.517135936584663E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
         <v>46</v>
       </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
       <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>0.69791666666666663</v>
       </c>
+      <c r="D35" s="3">
+        <f>SMALL($A$2:$A$49,B35)</f>
+        <v>75</v>
+      </c>
       <c r="E35" s="3">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73.08270401228863</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>73.08270401228863</v>
+        <v>3.0460065527172411E-2</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="3"/>
-        <v>3.0460065527172411E-2</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="4"/>
         <v>3.4173496365455372E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
         <v>67</v>
       </c>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
       <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>0.71875</v>
       </c>
+      <c r="D36" s="3">
+        <f>SMALL($A$2:$A$49,B36)</f>
+        <v>76</v>
+      </c>
       <c r="E36" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>73.702360290107549</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="2"/>
-        <v>73.702360290107549</v>
+        <v>2.8287365759281716E-2</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="3"/>
-        <v>2.8287365759281716E-2</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="4"/>
         <v>3.3053648655301061E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
         <v>71</v>
       </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
       <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>0.73958333333333337</v>
       </c>
+      <c r="D37" s="3">
+        <f>SMALL($A$2:$A$49,B37)</f>
+        <v>76</v>
+      </c>
       <c r="E37" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>74.344623528747917</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="2"/>
-        <v>74.344623528747917</v>
+        <v>2.8287365759281716E-2</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="3"/>
-        <v>2.8287365759281716E-2</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="4"/>
         <v>3.1807674085480436E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
         <v>68</v>
       </c>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
       <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>0.76041666666666663</v>
       </c>
+      <c r="D38" s="3">
+        <f>SMALL($A$2:$A$49,B38)</f>
+        <v>76</v>
+      </c>
       <c r="E38" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75.013962797768571</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
-        <v>75.013962797768571</v>
+        <v>2.8287365759281716E-2</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="3"/>
-        <v>2.8287365759281716E-2</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="4"/>
         <v>3.0430619478248981E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
         <v>82</v>
       </c>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
       <c r="C39" s="3">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>0.78125</v>
       </c>
+      <c r="D39" s="3">
+        <f>SMALL($A$2:$A$49,B39)</f>
+        <v>76</v>
+      </c>
       <c r="E39" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75.715922047069299</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
-        <v>75.715922047069299</v>
+        <v>2.8287365759281716E-2</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="3"/>
-        <v>2.8287365759281716E-2</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="4"/>
         <v>2.8916536055444093E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
         <v>82</v>
       </c>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
       <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0.80208333333333337</v>
       </c>
+      <c r="D40" s="3">
+        <f>SMALL($A$2:$A$49,B40)</f>
+        <v>76</v>
+      </c>
       <c r="E40" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>76.457544105484018</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>76.457544105484018</v>
+        <v>2.8287365759281716E-2</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="3"/>
-        <v>2.8287365759281716E-2</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" si="4"/>
         <v>2.7258224946482241E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
         <v>63</v>
       </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
       <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>0.82291666666666663</v>
       </c>
+      <c r="D41" s="3">
+        <f>SMALL($A$2:$A$49,B41)</f>
+        <v>77</v>
+      </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>77.248022636374131</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
-        <v>77.248022636374131</v>
+        <v>2.60186573746197E-2</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="3"/>
-        <v>2.60186573746197E-2</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="4"/>
         <v>2.5446877082472463E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
         <v>81</v>
       </c>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
       <c r="C42" s="3">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>0.84375</v>
       </c>
+      <c r="D42" s="3">
+        <f>SMALL($A$2:$A$49,B42)</f>
+        <v>78</v>
+      </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>78.099749764436638</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
-        <v>78.099749764436638</v>
+        <v>2.3703253534321417E-2</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="3"/>
-        <v>2.3703253534321417E-2</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="4"/>
         <v>2.3471546913443678E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
         <v>76</v>
       </c>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
       <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>0.86458333333333337</v>
       </c>
+      <c r="D43" s="3">
+        <f>SMALL($A$2:$A$49,B43)</f>
+        <v>78</v>
+      </c>
       <c r="E43" s="3">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79.030092295588759</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>79.030092295588759</v>
+        <v>2.3703253534321417E-2</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="3"/>
-        <v>2.3703253534321417E-2</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="4"/>
         <v>2.1318351480292319E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
         <v>84</v>
       </c>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
       <c r="C44" s="3">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>0.88541666666666663</v>
       </c>
+      <c r="D44" s="3">
+        <f>SMALL($A$2:$A$49,B44)</f>
+        <v>80</v>
+      </c>
       <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>80.064612956035404</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
-        <v>80.064612956035404</v>
+        <v>1.9113764537571371E-2</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="3"/>
-        <v>1.9113764537571371E-2</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="4"/>
         <v>1.8969187034873106E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
       <c r="C45" s="3">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
+      <c r="D45" s="3">
+        <f>SMALL($A$2:$A$49,B45)</f>
+        <v>81</v>
+      </c>
       <c r="E45" s="3">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>81.243446958019106</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="2"/>
-        <v>81.243446958019106</v>
+        <v>1.6918483094850716E-2</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="3"/>
-        <v>1.6918483094850716E-2</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="4"/>
         <v>1.6399529185562114E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
         <v>53</v>
       </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
       <c r="C46" s="3">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3">
         <f t="shared" si="0"/>
         <v>0.92708333333333337</v>
       </c>
+      <c r="D46" s="3">
+        <f>SMALL($A$2:$A$49,B46)</f>
+        <v>81</v>
+      </c>
       <c r="E46" s="3">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82.635528403863205</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="2"/>
-        <v>82.635528403863205</v>
+        <v>1.6918483094850716E-2</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="3"/>
-        <v>1.6918483094850716E-2</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="4"/>
         <v>1.3574299351018348E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
         <v>81</v>
       </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
       <c r="C47" s="3">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3">
         <f t="shared" si="0"/>
         <v>0.94791666666666663</v>
       </c>
+      <c r="D47" s="3">
+        <f>SMALL($A$2:$A$49,B47)</f>
+        <v>82</v>
+      </c>
       <c r="E47" s="3">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>84.376418499556863</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="2"/>
-        <v>84.376418499556863</v>
+        <v>1.4832259508299174E-2</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="3"/>
-        <v>1.4832259508299174E-2</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="4"/>
         <v>1.0438989808332371E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
         <v>67</v>
       </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
       <c r="C48" s="3">
-        <v>47</v>
-      </c>
-      <c r="D48" s="3">
         <f t="shared" si="0"/>
         <v>0.96875</v>
       </c>
+      <c r="D48" s="3">
+        <f>SMALL($A$2:$A$49,B48)</f>
+        <v>82</v>
+      </c>
       <c r="E48" s="3">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>86.802935749130157</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="2"/>
-        <v>86.802935749130157</v>
+        <v>1.4832259508299174E-2</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="3"/>
-        <v>1.4832259508299174E-2</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="4"/>
         <v>6.8960168994314144E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
         <v>76</v>
       </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
       <c r="C49" s="3">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3">
         <f t="shared" si="0"/>
         <v>0.98958333333333337</v>
       </c>
+      <c r="D49" s="3">
+        <f>SMALL($A$2:$A$49,B49)</f>
+        <v>84</v>
+      </c>
       <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>91.377926690052547</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="2"/>
-        <v>91.377926690052547</v>
+        <v>1.1076210812933932E-2</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="3"/>
-        <v>1.1076210812933932E-2</v>
-      </c>
-      <c r="H49" s="3">
+        <v>2.7060459386015626E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0104166666666667</v>
+      </c>
+      <c r="D50" s="3" t="e">
+        <f t="shared" ref="D50:D113" si="4">SMALL($A$2:$A$49,B50)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F50" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G50" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>1.03125</v>
+      </c>
+      <c r="D51" s="3" t="e">
         <f t="shared" si="4"/>
-        <v>2.7060459386015626E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <f>AVERAGE(B2:B49)</f>
-        <v>67.791666666666671</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <f>MEDIAN(B2:B49)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F51" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0520833333333333</v>
+      </c>
+      <c r="D52" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F52" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G52" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0729166666666667</v>
+      </c>
+      <c r="D53" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F53" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G53" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>1.09375</v>
+      </c>
+      <c r="D54" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F54" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G54" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1145833333333333</v>
+      </c>
+      <c r="D55" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1354166666666667</v>
+      </c>
+      <c r="D56" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>1.15625</v>
+      </c>
+      <c r="D57" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F57" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1770833333333333</v>
+      </c>
+      <c r="D58" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F58" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1979166666666667</v>
+      </c>
+      <c r="D59" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E59" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F59" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>1.21875</v>
+      </c>
+      <c r="D60" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E60" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F60" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G60" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2395833333333333</v>
+      </c>
+      <c r="D61" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2604166666666667</v>
+      </c>
+      <c r="D62" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>1.28125</v>
+      </c>
+      <c r="D63" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="D64" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3229166666666667</v>
+      </c>
+      <c r="D65" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:C129" si="5">(B66-0.5)/$J$2</f>
+        <v>1.34375</v>
+      </c>
+      <c r="D66" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3645833333333333</v>
+      </c>
+      <c r="D67" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" s="3" t="e">
+        <f t="shared" ref="E67:E130" si="6">_xlfn.NORM.INV(C67,$J$3,$J$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" s="3" t="e">
+        <f t="shared" ref="F67:G130" si="7">_xlfn.NORM.DIST(D67,$J$3,$J$4,FALSE)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3854166666666667</v>
+      </c>
+      <c r="D68" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B69" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>MAX(B2:B49)</f>
+      <c r="C69" s="3">
+        <f t="shared" si="5"/>
+        <v>1.40625</v>
+      </c>
+      <c r="D69" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4270833333333333</v>
+      </c>
+      <c r="D70" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4479166666666667</v>
+      </c>
+      <c r="D71" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="3">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="5"/>
+        <v>1.46875</v>
+      </c>
+      <c r="D72" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E72" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F72" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G72" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="3">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4895833333333333</v>
+      </c>
+      <c r="D73" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E73" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F73" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G73" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" s="3">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5104166666666667</v>
+      </c>
+      <c r="D74" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E74" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F74" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G74" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="3">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="5"/>
+        <v>1.53125</v>
+      </c>
+      <c r="D75" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E75" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F75" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G75" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" s="3">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5520833333333333</v>
+      </c>
+      <c r="D76" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E76" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F76" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G76" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" s="3">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5729166666666667</v>
+      </c>
+      <c r="D77" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F77" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G77" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" s="3">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="5"/>
+        <v>1.59375</v>
+      </c>
+      <c r="D78" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E78" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F78" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G78" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" s="3">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6145833333333333</v>
+      </c>
+      <c r="D79" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E79" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F79" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G79" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" s="3">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6354166666666667</v>
+      </c>
+      <c r="D80" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E80" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F80" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G80" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="3">
+        <v>80</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="5"/>
+        <v>1.65625</v>
+      </c>
+      <c r="D81" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E81" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F81" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G81" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="3">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6770833333333333</v>
+      </c>
+      <c r="D82" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E82" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F82" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G82" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="3">
+        <v>82</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6979166666666667</v>
+      </c>
+      <c r="D83" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E83" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F83" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G83" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="3">
+        <v>83</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="5"/>
+        <v>1.71875</v>
+      </c>
+      <c r="D84" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E84" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F84" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G84" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <f>MIN(B2:B49)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <f>_xlfn.STDEV.P(B2:B49)</f>
-        <v>10.20612220951501</v>
+      <c r="C85" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7395833333333333</v>
+      </c>
+      <c r="D85" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E85" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F85" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G85" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" s="3">
+        <v>85</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7604166666666667</v>
+      </c>
+      <c r="D86" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E86" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F86" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G86" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" s="3">
+        <v>86</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="5"/>
+        <v>1.78125</v>
+      </c>
+      <c r="D87" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E87" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F87" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G87" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" s="3">
+        <v>87</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8020833333333333</v>
+      </c>
+      <c r="D88" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E88" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F88" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G88" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" s="3">
+        <v>88</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="D89" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E89" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F89" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G89" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" s="3">
+        <v>89</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="5"/>
+        <v>1.84375</v>
+      </c>
+      <c r="D90" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E90" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F90" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G90" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" s="3">
+        <v>90</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8645833333333333</v>
+      </c>
+      <c r="D91" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E91" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F91" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G91" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" s="3">
+        <v>91</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8854166666666667</v>
+      </c>
+      <c r="D92" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E92" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F92" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G92" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" s="3">
+        <v>92</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="5"/>
+        <v>1.90625</v>
+      </c>
+      <c r="D93" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E93" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F93" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G93" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" s="3">
+        <v>93</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9270833333333333</v>
+      </c>
+      <c r="D94" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E94" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F94" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G94" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" s="3">
+        <v>94</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9479166666666667</v>
+      </c>
+      <c r="D95" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E95" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F95" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G95" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" s="3">
+        <v>95</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="5"/>
+        <v>1.96875</v>
+      </c>
+      <c r="D96" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E96" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F96" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G96" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" s="3">
+        <v>96</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9895833333333333</v>
+      </c>
+      <c r="D97" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E97" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F97" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G97" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" s="3">
+        <v>97</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0104166666666665</v>
+      </c>
+      <c r="D98" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E98" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F98" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G98" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" s="3">
+        <v>98</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="5"/>
+        <v>2.03125</v>
+      </c>
+      <c r="D99" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E99" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F99" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G99" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" s="3">
+        <v>99</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0520833333333335</v>
+      </c>
+      <c r="D100" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E100" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F100" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G100" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" s="3">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0729166666666665</v>
+      </c>
+      <c r="D101" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E101" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F101" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G101" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B102" s="3">
+        <v>101</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="5"/>
+        <v>2.09375</v>
+      </c>
+      <c r="D102" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E102" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F102" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G102" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" s="3">
+        <v>102</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1145833333333335</v>
+      </c>
+      <c r="D103" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E103" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F103" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G103" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="3">
+        <v>103</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1354166666666665</v>
+      </c>
+      <c r="D104" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E104" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F104" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G104" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" s="3">
+        <v>104</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="5"/>
+        <v>2.15625</v>
+      </c>
+      <c r="D105" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E105" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F105" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G105" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" s="3">
+        <v>105</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1770833333333335</v>
+      </c>
+      <c r="D106" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E106" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F106" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G106" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B107" s="3">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1979166666666665</v>
+      </c>
+      <c r="D107" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E107" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F107" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G107" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B108" s="3">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="5"/>
+        <v>2.21875</v>
+      </c>
+      <c r="D108" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E108" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F108" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G108" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B109" s="3">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2395833333333335</v>
+      </c>
+      <c r="D109" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E109" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F109" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G109" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B110" s="3">
+        <v>109</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2604166666666665</v>
+      </c>
+      <c r="D110" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E110" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F110" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G110" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B111" s="3">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="5"/>
+        <v>2.28125</v>
+      </c>
+      <c r="D111" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E111" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F111" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G111" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B112" s="3">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3020833333333335</v>
+      </c>
+      <c r="D112" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E112" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F112" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G112" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B113" s="3">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3229166666666665</v>
+      </c>
+      <c r="D113" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E113" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F113" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G113" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B114" s="3">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="5"/>
+        <v>2.34375</v>
+      </c>
+      <c r="D114" s="3" t="e">
+        <f t="shared" ref="D114:D145" si="8">SMALL($A$2:$A$49,B114)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E114" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F114" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G114" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B115" s="3">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3645833333333335</v>
+      </c>
+      <c r="D115" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E115" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F115" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G115" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B116" s="3">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3854166666666665</v>
+      </c>
+      <c r="D116" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E116" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F116" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G116" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B117" s="3">
+        <v>116</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="5"/>
+        <v>2.40625</v>
+      </c>
+      <c r="D117" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E117" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F117" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G117" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B118" s="3">
+        <v>117</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4270833333333335</v>
+      </c>
+      <c r="D118" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E118" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F118" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G118" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B119" s="3">
+        <v>118</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4479166666666665</v>
+      </c>
+      <c r="D119" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E119" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F119" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G119" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B120" s="3">
+        <v>119</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="5"/>
+        <v>2.46875</v>
+      </c>
+      <c r="D120" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E120" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F120" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G120" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B121" s="3">
+        <v>120</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4895833333333335</v>
+      </c>
+      <c r="D121" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E121" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F121" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G121" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B122" s="3">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5104166666666665</v>
+      </c>
+      <c r="D122" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E122" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F122" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G122" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B123" s="3">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="5"/>
+        <v>2.53125</v>
+      </c>
+      <c r="D123" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E123" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F123" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G123" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B124" s="3">
+        <v>123</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5520833333333335</v>
+      </c>
+      <c r="D124" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E124" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F124" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G124" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B125" s="3">
+        <v>124</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5729166666666665</v>
+      </c>
+      <c r="D125" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E125" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F125" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G125" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B126" s="3">
+        <v>125</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="5"/>
+        <v>2.59375</v>
+      </c>
+      <c r="D126" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E126" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F126" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G126" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B127" s="3">
+        <v>126</v>
+      </c>
+      <c r="C127" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6145833333333335</v>
+      </c>
+      <c r="D127" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E127" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F127" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G127" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B128" s="3">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6354166666666665</v>
+      </c>
+      <c r="D128" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E128" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F128" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G128" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" s="3">
+        <v>128</v>
+      </c>
+      <c r="C129" s="3">
+        <f t="shared" si="5"/>
+        <v>2.65625</v>
+      </c>
+      <c r="D129" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E129" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F129" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G129" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B130" s="3">
+        <v>129</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" ref="C130:C145" si="9">(B130-0.5)/$J$2</f>
+        <v>2.6770833333333335</v>
+      </c>
+      <c r="D130" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E130" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F130" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G130" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B131" s="3">
+        <v>130</v>
+      </c>
+      <c r="C131" s="3">
+        <f t="shared" si="9"/>
+        <v>2.6979166666666665</v>
+      </c>
+      <c r="D131" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E131" s="3" t="e">
+        <f t="shared" ref="E131:E145" si="10">_xlfn.NORM.INV(C131,$J$3,$J$4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F131" s="3" t="e">
+        <f t="shared" ref="F131:G145" si="11">_xlfn.NORM.DIST(D131,$J$3,$J$4,FALSE)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G131" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B132" s="3">
+        <v>131</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="9"/>
+        <v>2.71875</v>
+      </c>
+      <c r="D132" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E132" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F132" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G132" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B133" s="3">
+        <v>132</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7395833333333335</v>
+      </c>
+      <c r="D133" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E133" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F133" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G133" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B134" s="3">
+        <v>133</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7604166666666665</v>
+      </c>
+      <c r="D134" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E134" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F134" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G134" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B135" s="3">
+        <v>134</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="9"/>
+        <v>2.78125</v>
+      </c>
+      <c r="D135" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E135" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F135" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G135" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B136" s="3">
+        <v>135</v>
+      </c>
+      <c r="C136" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8020833333333335</v>
+      </c>
+      <c r="D136" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E136" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F136" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G136" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B137" s="3">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8229166666666665</v>
+      </c>
+      <c r="D137" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E137" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F137" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G137" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B138" s="3">
+        <v>137</v>
+      </c>
+      <c r="C138" s="3">
+        <f t="shared" si="9"/>
+        <v>2.84375</v>
+      </c>
+      <c r="D138" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E138" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F138" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G138" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B139" s="3">
+        <v>138</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8645833333333335</v>
+      </c>
+      <c r="D139" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E139" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F139" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G139" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B140" s="3">
+        <v>139</v>
+      </c>
+      <c r="C140" s="3">
+        <f t="shared" si="9"/>
+        <v>2.8854166666666665</v>
+      </c>
+      <c r="D140" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E140" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F140" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G140" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B141" s="3">
+        <v>140</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="9"/>
+        <v>2.90625</v>
+      </c>
+      <c r="D141" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E141" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F141" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G141" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B142" s="3">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="9"/>
+        <v>2.9270833333333335</v>
+      </c>
+      <c r="D142" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E142" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F142" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G142" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B143" s="3">
+        <v>142</v>
+      </c>
+      <c r="C143" s="3">
+        <f t="shared" si="9"/>
+        <v>2.9479166666666665</v>
+      </c>
+      <c r="D143" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E143" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F143" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G143" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B144" s="3">
+        <v>143</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="9"/>
+        <v>2.96875</v>
+      </c>
+      <c r="D144" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E144" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F144" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G144" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B145" s="3">
+        <v>144</v>
+      </c>
+      <c r="C145" s="3">
+        <f t="shared" si="9"/>
+        <v>2.9895833333333335</v>
+      </c>
+      <c r="D145" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E145" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F145" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G145" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/test_analisis.xlsx
+++ b/test_analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18813A24-0766-4AD2-BBF0-3D79BB9FF3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3C314-86AB-4047-88F3-D383C44264B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAD1E7D8-E35B-F440-ADA5-639D466DF53E}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$145</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,6 +198,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1739,16 +1744,14 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>確率分布期待値</c:v>
+            <c:v>観測データの確率分布</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1758,11 +1761,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1770,306 +1773,882 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$H$2:$H$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
-                  <c:v>44.205406643280824</c:v>
+                  <c:v>-2.3109913382574176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.780397584203186</c:v>
+                  <c:v>-1.8627318674216513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.20691483377648</c:v>
+                  <c:v>-1.6249807216131984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.947804929470152</c:v>
+                  <c:v>-1.4544076028560402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.339886375314236</c:v>
+                  <c:v>-1.3180108973035369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.518720377297946</c:v>
+                  <c:v>-1.2025082629254475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.553241037744591</c:v>
+                  <c:v>-1.1011455083738533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.483583568896705</c:v>
+                  <c:v>-1.0099901692495803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.335310696959205</c:v>
+                  <c:v>-0.92653759925502865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.125789227849324</c:v>
+                  <c:v>-0.84908619169171651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.867411286264044</c:v>
+                  <c:v>-0.77642176114792805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.569370535564772</c:v>
+                  <c:v>-0.70764350875288007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.238709804585426</c:v>
+                  <c:v>-0.64206137527650065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.880973043225794</c:v>
+                  <c:v>-0.57913216225555575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.500629321044713</c:v>
+                  <c:v>-0.51841798843925324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.101359019739192</c:v>
+                  <c:v>-0.45955824853388272</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.686253341207745</c:v>
+                  <c:v>-0.40225006532172547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.257957459244835</c:v>
+                  <c:v>-0.34623426359988257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64.818776022031344</c:v>
+                  <c:v>-0.29128503300340142</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.370752950502322</c:v>
+                  <c:v>-0.23720210932878788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65.915733406821118</c:v>
+                  <c:v>-0.18380470283773884</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>66.455413287136778</c:v>
+                  <c:v>-0.13092664893666711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.991379999569602</c:v>
+                  <c:v>-7.8412412733111711E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.525147269335378</c:v>
+                  <c:v>-2.6113678815527203E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.058186063997965</c:v>
+                  <c:v>2.6113678815527203E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.59195333376374</c:v>
+                  <c:v>7.8412412733111711E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69.127920046196579</c:v>
+                  <c:v>0.1309266489366685</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.66759992651221</c:v>
+                  <c:v>0.18380470283773745</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70.212580382831021</c:v>
+                  <c:v>0.23720210932878788</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.764557311301999</c:v>
+                  <c:v>0.29128503300340142</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71.325375874088508</c:v>
+                  <c:v>0.34623426359988257</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71.897079992125597</c:v>
+                  <c:v>0.40225006532172547</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.481974313594151</c:v>
+                  <c:v>0.45955824853388272</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73.08270401228863</c:v>
+                  <c:v>0.51841798843925324</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73.702360290107549</c:v>
+                  <c:v>0.57913216225555575</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>74.344623528747917</c:v>
+                  <c:v>0.64206137527650065</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75.013962797768571</c:v>
+                  <c:v>0.70764350875288007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75.715922047069299</c:v>
+                  <c:v>0.77642176114792805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.457544105484018</c:v>
+                  <c:v>0.84908619169171651</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77.248022636374131</c:v>
+                  <c:v>0.92653759925502799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>78.099749764436638</c:v>
+                  <c:v>1.0099901692495803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>79.030092295588759</c:v>
+                  <c:v>1.1011455083738539</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80.064612956035404</c:v>
+                  <c:v>1.2025082629254482</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>81.243446958019106</c:v>
+                  <c:v>1.3180108973035369</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>82.635528403863205</c:v>
+                  <c:v>1.4544076028560418</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>84.376418499556863</c:v>
+                  <c:v>1.6249807216131984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>86.802935749130157</c:v>
+                  <c:v>1.8627318674216513</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>91.377926690052547</c:v>
+                  <c:v>2.3109913382574208</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$49</c:f>
+              <c:f>Sheet1!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>2.706045938601583E-3</c:v>
+                  <c:v>1.2465294266996566E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8960168994314144E-3</c:v>
+                  <c:v>2.0453552374110231E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0438989808332371E-2</c:v>
+                  <c:v>2.5825450633501748E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3574299351018377E-2</c:v>
+                  <c:v>4.0003532303986523E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6399529185562114E-2</c:v>
+                  <c:v>1.367546227095926E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.896918703487312E-2</c:v>
+                  <c:v>2.0053616908755855E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1318351480292333E-2</c:v>
+                  <c:v>2.920721590286425E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3471546913443678E-2</c:v>
+                  <c:v>2.920721590286425E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5446877082472445E-2</c:v>
+                  <c:v>3.3275386251607517E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7258224946482241E-2</c:v>
+                  <c:v>3.3275386251607517E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8916536055444093E-2</c:v>
+                  <c:v>3.3275386251607517E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0430619478248981E-2</c:v>
+                  <c:v>3.5009477787382358E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1807674085480436E-2</c:v>
+                  <c:v>3.5009477787382358E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3053648655301061E-2</c:v>
+                  <c:v>3.6482018867399178E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4173496365455372E-2</c:v>
+                  <c:v>3.6482018867399178E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.517135936584663E-2</c:v>
+                  <c:v>3.6482018867399178E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6050705421385207E-2</c:v>
+                  <c:v>3.7653278624333611E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6814430677366228E-2</c:v>
+                  <c:v>3.8490844152200811E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7464937803801911E-2</c:v>
+                  <c:v>3.8971110119221698E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8004195768478244E-2</c:v>
+                  <c:v>3.8971110119221698E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8433785539769991E-2</c:v>
+                  <c:v>3.8971110119221698E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8754934716935911E-2</c:v>
+                  <c:v>3.8971110119221698E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8968543186005865E-2</c:v>
+                  <c:v>3.8971110119221698E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9075201256614053E-2</c:v>
+                  <c:v>3.9080383960770959E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9075201256614053E-2</c:v>
+                  <c:v>3.9080383960770959E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8968543186005865E-2</c:v>
+                  <c:v>3.9080383960770959E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8754934716935897E-2</c:v>
+                  <c:v>3.8184140736698693E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8433785539770005E-2</c:v>
+                  <c:v>3.8184140736698693E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8004195768478244E-2</c:v>
+                  <c:v>3.7204132064261666E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7464937803801911E-2</c:v>
+                  <c:v>3.7204132064261666E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6814430677366228E-2</c:v>
+                  <c:v>3.7204132064261666E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6050705421385207E-2</c:v>
+                  <c:v>3.5902941883901238E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.517135936584663E-2</c:v>
+                  <c:v>3.2486271089391623E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4173496365455372E-2</c:v>
+                  <c:v>3.0460065527172411E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3053648655301061E-2</c:v>
+                  <c:v>2.8287365759281716E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1807674085480436E-2</c:v>
+                  <c:v>2.8287365759281716E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0430619478248981E-2</c:v>
+                  <c:v>2.8287365759281716E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8916536055444093E-2</c:v>
+                  <c:v>2.8287365759281716E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7258224946482241E-2</c:v>
+                  <c:v>2.8287365759281716E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.5446877082472463E-2</c:v>
+                  <c:v>2.60186573746197E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3471546913443678E-2</c:v>
+                  <c:v>2.3703253534321417E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1318351480292319E-2</c:v>
+                  <c:v>2.3703253534321417E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8969187034873106E-2</c:v>
+                  <c:v>1.9113764537571371E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6399529185562114E-2</c:v>
+                  <c:v>1.6918483094850716E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3574299351018348E-2</c:v>
+                  <c:v>1.6918483094850716E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0438989808332371E-2</c:v>
+                  <c:v>1.4832259508299174E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8960168994314144E-3</c:v>
+                  <c:v>1.4832259508299174E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7060459386015626E-3</c:v>
+                  <c:v>1.1076210812933932E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,15 +2656,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B6EC-46EC-882A-E4FEEC988BE1}"/>
+              <c16:uniqueId val="{00000000-62B8-427E-8A7A-BAC3F00A056F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>観測データの確率分布</c:v>
+            <c:v>確率分布期待値</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2102,313 +2681,891 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$H$2:$H$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>-2.3109913382574176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>-1.8627318674216513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>-1.6249807216131984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>-1.4544076028560402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>-1.3180108973035369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>-1.2025082629254475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>-1.1011455083738533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>-1.0099901692495803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62</c:v>
+                  <c:v>-0.92653759925502865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>-0.84908619169171651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>-0.77642176114792805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>-0.70764350875288007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>-0.64206137527650065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64</c:v>
+                  <c:v>-0.57913216225555575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64</c:v>
+                  <c:v>-0.51841798843925324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>-0.45955824853388272</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65</c:v>
+                  <c:v>-0.40225006532172547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>-0.34623426359988257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>-0.29128503300340142</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>-0.23720210932878788</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67</c:v>
+                  <c:v>-0.18380470283773884</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67</c:v>
+                  <c:v>-0.13092664893666711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67</c:v>
+                  <c:v>-7.8412412733111711E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68</c:v>
+                  <c:v>-2.6113678815527203E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68</c:v>
+                  <c:v>2.6113678815527203E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68</c:v>
+                  <c:v>7.8412412733111711E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70</c:v>
+                  <c:v>0.1309266489366685</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70</c:v>
+                  <c:v>0.18380470283773745</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71</c:v>
+                  <c:v>0.23720210932878788</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71</c:v>
+                  <c:v>0.29128503300340142</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>71</c:v>
+                  <c:v>0.34623426359988257</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72</c:v>
+                  <c:v>0.40225006532172547</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74</c:v>
+                  <c:v>0.45955824853388272</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75</c:v>
+                  <c:v>0.51841798843925324</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76</c:v>
+                  <c:v>0.57913216225555575</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>76</c:v>
+                  <c:v>0.64206137527650065</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76</c:v>
+                  <c:v>0.70764350875288007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76</c:v>
+                  <c:v>0.77642176114792805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76</c:v>
+                  <c:v>0.84908619169171651</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77</c:v>
+                  <c:v>0.92653759925502799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>78</c:v>
+                  <c:v>1.0099901692495803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>78</c:v>
+                  <c:v>1.1011455083738539</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>80</c:v>
+                  <c:v>1.2025082629254482</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>81</c:v>
+                  <c:v>1.3180108973035369</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>81</c:v>
+                  <c:v>1.4544076028560418</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>82</c:v>
+                  <c:v>1.6249807216131984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82</c:v>
+                  <c:v>1.8627318674216513</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84</c:v>
+                  <c:v>2.3109913382574208</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$49</c:f>
+              <c:f>Sheet1!$G$2:$G$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>1.2465294266996566E-3</c:v>
+                  <c:v>2.706045938601583E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0453552374110231E-3</c:v>
+                  <c:v>6.8960168994314144E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5825450633501748E-3</c:v>
+                  <c:v>1.0438989808332371E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0003532303986523E-3</c:v>
+                  <c:v>1.3574299351018377E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.367546227095926E-2</c:v>
+                  <c:v>1.6399529185562114E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0053616908755855E-2</c:v>
+                  <c:v>1.896918703487312E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.920721590286425E-2</c:v>
+                  <c:v>2.1318351480292333E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.920721590286425E-2</c:v>
+                  <c:v>2.3471546913443678E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3275386251607517E-2</c:v>
+                  <c:v>2.5446877082472445E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3275386251607517E-2</c:v>
+                  <c:v>2.7258224946482241E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3275386251607517E-2</c:v>
+                  <c:v>2.8916536055444093E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5009477787382358E-2</c:v>
+                  <c:v>3.0430619478248981E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5009477787382358E-2</c:v>
+                  <c:v>3.1807674085480436E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6482018867399178E-2</c:v>
+                  <c:v>3.3053648655301061E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6482018867399178E-2</c:v>
+                  <c:v>3.4173496365455372E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6482018867399178E-2</c:v>
+                  <c:v>3.517135936584663E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7653278624333611E-2</c:v>
+                  <c:v>3.6050705421385207E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8490844152200811E-2</c:v>
+                  <c:v>3.6814430677366228E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8971110119221698E-2</c:v>
+                  <c:v>3.7464937803801911E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8971110119221698E-2</c:v>
+                  <c:v>3.8004195768478244E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8971110119221698E-2</c:v>
+                  <c:v>3.8433785539769991E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8971110119221698E-2</c:v>
+                  <c:v>3.8754934716935911E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8971110119221698E-2</c:v>
+                  <c:v>3.8968543186005865E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9080383960770959E-2</c:v>
+                  <c:v>3.9075201256614053E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9080383960770959E-2</c:v>
+                  <c:v>3.9075201256614053E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9080383960770959E-2</c:v>
+                  <c:v>3.8968543186005865E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8184140736698693E-2</c:v>
+                  <c:v>3.8754934716935897E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8184140736698693E-2</c:v>
+                  <c:v>3.8433785539770005E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.7204132064261666E-2</c:v>
+                  <c:v>3.8004195768478244E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7204132064261666E-2</c:v>
+                  <c:v>3.7464937803801911E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7204132064261666E-2</c:v>
+                  <c:v>3.6814430677366228E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5902941883901238E-2</c:v>
+                  <c:v>3.6050705421385207E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2486271089391623E-2</c:v>
+                  <c:v>3.517135936584663E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.0460065527172411E-2</c:v>
+                  <c:v>3.4173496365455372E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8287365759281716E-2</c:v>
+                  <c:v>3.3053648655301061E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.8287365759281716E-2</c:v>
+                  <c:v>3.1807674085480436E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8287365759281716E-2</c:v>
+                  <c:v>3.0430619478248981E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8287365759281716E-2</c:v>
+                  <c:v>2.8916536055444093E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8287365759281716E-2</c:v>
+                  <c:v>2.7258224946482241E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.60186573746197E-2</c:v>
+                  <c:v>2.5446877082472463E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3703253534321417E-2</c:v>
+                  <c:v>2.3471546913443678E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3703253534321417E-2</c:v>
+                  <c:v>2.1318351480292319E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9113764537571371E-2</c:v>
+                  <c:v>1.8969187034873106E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6918483094850716E-2</c:v>
+                  <c:v>1.6399529185562114E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.6918483094850716E-2</c:v>
+                  <c:v>1.3574299351018348E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4832259508299174E-2</c:v>
+                  <c:v>1.0438989808332371E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4832259508299174E-2</c:v>
+                  <c:v>6.8960168994314144E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1076210812933932E-2</c:v>
+                  <c:v>2.7060459386015626E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +3573,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B6EC-46EC-882A-E4FEEC988BE1}"/>
+              <c16:uniqueId val="{00000001-62B8-427E-8A7A-BAC3F00A056F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2428,14 +3585,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210515167"/>
-        <c:axId val="210521823"/>
+        <c:axId val="704799952"/>
+        <c:axId val="704796624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210515167"/>
+        <c:axId val="704799952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2447,10 +3603,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2476,12 +3629,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210521823"/>
+        <c:crossAx val="704796624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210521823"/>
+        <c:axId val="704796624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.000000000000001E-2"/>
@@ -2496,10 +3649,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2525,7 +3675,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210515167"/>
+        <c:crossAx val="704799952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2537,10 +3687,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4838,13 +6025,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
@@ -4883,7 +6070,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10382251" y="4233862"/>
+              <a:off x="8915401" y="4233862"/>
               <a:ext cx="10820400" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4916,13 +6103,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
@@ -4952,13 +6139,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>233362</xdr:rowOff>
@@ -4988,23 +6175,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>969309</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>610721</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:rowOff>194981</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F861417-F6A5-1063-DDC1-82CF4DEAE8B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE19DEB-11E3-A4EB-6460-1A82DA1839B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79491E23-EA71-7045-A889-4047F7229E03}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -5333,12 +6520,12 @@
     <col min="1" max="1" width="11.5546875" style="4"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="5" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -5349,7 +6536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>62</v>
       </c>
@@ -5357,41 +6544,45 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C65" si="0">(B2-0.5)/$J$2</f>
+        <f t="shared" ref="C2:C65" si="0">(B2-0.5)/$K$2</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D2" s="3">
-        <f>SMALL($A$2:$A$49,B2)</f>
+        <f t="shared" ref="D2:D49" si="1">SMALL($A$2:$A$49,B2)</f>
         <v>41</v>
       </c>
       <c r="E2" s="3">
-        <f>_xlfn.NORM.INV(C2,$J$3,$J$4)</f>
+        <f>_xlfn.NORM.INV(C2,$K$3,$K$4)</f>
         <v>44.205406643280824</v>
       </c>
       <c r="F2" s="3">
-        <f>_xlfn.NORM.DIST(D2,$J$3,$J$4,FALSE)</f>
+        <f>_xlfn.NORM.DIST(D2,$K$3,$K$4,FALSE)</f>
         <v>1.2465294266996566E-3</v>
       </c>
       <c r="G2" s="3">
-        <f>_xlfn.NORM.DIST(E2,$J$3,$J$4,FALSE)</f>
+        <f>_xlfn.NORM.DIST(E2,$K$3,$K$4,FALSE)</f>
         <v>2.706045938601583E-3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="3">
+        <f>STANDARDIZE(E2,$K$3,$K$4)</f>
+        <v>-2.3109913382574176</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>COUNT(A2:A145)</f>
         <v>48</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>MEDIAN(A2:A145)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>41</v>
       </c>
@@ -5403,39 +6594,43 @@
         <v>3.125E-2</v>
       </c>
       <c r="D3" s="3">
-        <f>SMALL($A$2:$A$49,B3)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E66" si="1">_xlfn.NORM.INV(C3,$J$3,$J$4)</f>
+        <f t="shared" ref="E3:E66" si="2">_xlfn.NORM.INV(C3,$K$3,$K$4)</f>
         <v>48.780397584203186</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" si="2">_xlfn.NORM.DIST(D3,$J$3,$J$4,FALSE)</f>
+        <f t="shared" ref="F3:F66" si="3">_xlfn.NORM.DIST(D3,$K$3,$K$4,FALSE)</f>
         <v>2.0453552374110231E-3</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="3">_xlfn.NORM.DIST(E3,$J$3,$J$4,FALSE)</f>
+        <f t="shared" ref="G3:G66" si="4">_xlfn.NORM.DIST(E3,$K$3,$K$4,FALSE)</f>
         <v>6.8960168994314144E-3</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" si="5">STANDARDIZE(E3,$K$3,$K$4)</f>
+        <v>-1.8627318674216513</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <f>AVERAGE(A2:A145)</f>
         <v>67.791666666666671</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <f>MAX(A2:A145)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>76</v>
       </c>
@@ -5447,37 +6642,41 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D4" s="3">
-        <f>SMALL($A$2:$A$49,B4)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.20691483377648</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5825450633501748E-3</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0438989808332371E-2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.6249807216131984</v>
+      </c>
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>_xlfn.STDEV.P(A2:A145)</f>
         <v>10.20612220951501</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>MIN(A2:A145)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>67</v>
       </c>
@@ -5489,23 +6688,27 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D5" s="3">
-        <f>SMALL($A$2:$A$49,B5)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.947804929470152</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0003532303986523E-3</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3574299351018377E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H5" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.4544076028560402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>67</v>
       </c>
@@ -5517,23 +6720,27 @@
         <v>9.375E-2</v>
       </c>
       <c r="D6" s="3">
-        <f>SMALL($A$2:$A$49,B6)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.339886375314236</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.367546227095926E-2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6399529185562114E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H6" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.3180108973035369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>68</v>
       </c>
@@ -5545,23 +6752,27 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="D7" s="3">
-        <f>SMALL($A$2:$A$49,B7)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.518720377297946</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0053616908755855E-2</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.896918703487312E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H7" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.2025082629254475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>60</v>
       </c>
@@ -5573,23 +6784,27 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="D8" s="3">
-        <f>SMALL($A$2:$A$49,B8)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.553241037744591</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.920721590286425E-2</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1318351480292333E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H8" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.1011455083738533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>72</v>
       </c>
@@ -5601,23 +6816,27 @@
         <v>0.15625</v>
       </c>
       <c r="D9" s="3">
-        <f>SMALL($A$2:$A$49,B9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.483583568896705</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.920721590286425E-2</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3471546913443678E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H9" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.0099901692495803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>44</v>
       </c>
@@ -5629,27 +6848,31 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="D10" s="3">
-        <f>SMALL($A$2:$A$49,B10)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.335310696959205</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3275386251607517E-2</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5446877082472445E-2</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.92653759925502865</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>64</v>
       </c>
@@ -5661,23 +6884,27 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="D11" s="3">
-        <f>SMALL($A$2:$A$49,B11)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.125789227849324</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3275386251607517E-2</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7258224946482241E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H11" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.84908619169171651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>62</v>
       </c>
@@ -5689,23 +6916,27 @@
         <v>0.21875</v>
       </c>
       <c r="D12" s="3">
-        <f>SMALL($A$2:$A$49,B12)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.867411286264044</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3275386251607517E-2</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8916536055444093E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H12" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.77642176114792805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>63</v>
       </c>
@@ -5717,23 +6948,27 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="D13" s="3">
-        <f>SMALL($A$2:$A$49,B13)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.569370535564772</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5009477787382358E-2</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0430619478248981E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H13" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.70764350875288007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>64</v>
       </c>
@@ -5745,23 +6980,27 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="D14" s="3">
-        <f>SMALL($A$2:$A$49,B14)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.238709804585426</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5009477787382358E-2</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1807674085480436E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H14" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.64206137527650065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>60</v>
       </c>
@@ -5773,23 +7012,27 @@
         <v>0.28125</v>
       </c>
       <c r="D15" s="3">
-        <f>SMALL($A$2:$A$49,B15)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.880973043225794</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6482018867399178E-2</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3053648655301061E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="H15" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.57913216225555575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>76</v>
       </c>
@@ -5801,23 +7044,27 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="D16" s="3">
-        <f>SMALL($A$2:$A$49,B16)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.500629321044713</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6482018867399178E-2</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4173496365455372E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.51841798843925324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>65</v>
       </c>
@@ -5829,23 +7076,27 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D17" s="3">
-        <f>SMALL($A$2:$A$49,B17)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.101359019739192</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6482018867399178E-2</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.517135936584663E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.45955824853388272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>71</v>
       </c>
@@ -5857,23 +7108,27 @@
         <v>0.34375</v>
       </c>
       <c r="D18" s="3">
-        <f>SMALL($A$2:$A$49,B18)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.686253341207745</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7653278624333611E-2</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6050705421385207E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.40225006532172547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>64</v>
       </c>
@@ -5885,23 +7140,27 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D19" s="3">
-        <f>SMALL($A$2:$A$49,B19)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.257957459244835</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8490844152200811E-2</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6814430677366228E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.34623426359988257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>56</v>
       </c>
@@ -5913,27 +7172,31 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D20" s="3">
-        <f>SMALL($A$2:$A$49,B20)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.818776022031344</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8971110119221698E-2</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7464937803801911E-2</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.29128503300340142</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>74</v>
       </c>
@@ -5945,23 +7208,27 @@
         <v>0.40625</v>
       </c>
       <c r="D21" s="3">
-        <f>SMALL($A$2:$A$49,B21)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.370752950502322</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8971110119221698E-2</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8004195768478244E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.23720210932878788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>75</v>
       </c>
@@ -5973,23 +7240,27 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D22" s="3">
-        <f>SMALL($A$2:$A$49,B22)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.915733406821118</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8971110119221698E-2</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8433785539769991E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.18380470283773884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>70</v>
       </c>
@@ -6001,23 +7272,27 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D23" s="3">
-        <f>SMALL($A$2:$A$49,B23)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.455413287136778</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8971110119221698E-2</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8754934716935911E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H23" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.13092664893666711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>76</v>
       </c>
@@ -6029,23 +7304,27 @@
         <v>0.46875</v>
       </c>
       <c r="D24" s="3">
-        <f>SMALL($A$2:$A$49,B24)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.991379999569602</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8971110119221698E-2</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8968543186005865E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
+        <v>-7.8412412733111711E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>66</v>
       </c>
@@ -6057,23 +7336,27 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D25" s="3">
-        <f>SMALL($A$2:$A$49,B25)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.525147269335378</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9080383960770959E-2</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9075201256614053E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.6113678815527203E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>67</v>
       </c>
@@ -6085,23 +7368,27 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" s="3">
-        <f>SMALL($A$2:$A$49,B26)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.058186063997965</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9080383960770959E-2</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9075201256614053E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6113678815527203E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>78</v>
       </c>
@@ -6113,23 +7400,27 @@
         <v>0.53125</v>
       </c>
       <c r="D27" s="3">
-        <f>SMALL($A$2:$A$49,B27)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.59195333376374</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9080383960770959E-2</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8968543186005865E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8412412733111711E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>80</v>
       </c>
@@ -6141,23 +7432,27 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" s="3">
-        <f>SMALL($A$2:$A$49,B28)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.127920046196579</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8184140736698693E-2</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8754934716935897E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1309266489366685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>68</v>
       </c>
@@ -6169,23 +7464,27 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D29" s="3">
-        <f>SMALL($A$2:$A$49,B29)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.66759992651221</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8184140736698693E-2</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8433785539770005E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H29" s="3">
+        <f t="shared" si="5"/>
+        <v>0.18380470283773745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>77</v>
       </c>
@@ -6197,23 +7496,27 @@
         <v>0.59375</v>
       </c>
       <c r="D30" s="3">
-        <f>SMALL($A$2:$A$49,B30)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.212580382831021</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7204132064261666E-2</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8004195768478244E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H30" s="3">
+        <f t="shared" si="5"/>
+        <v>0.23720210932878788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>71</v>
       </c>
@@ -6225,23 +7528,27 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D31" s="3">
-        <f>SMALL($A$2:$A$49,B31)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.764557311301999</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7204132064261666E-2</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7464937803801911E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29128503300340142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>78</v>
       </c>
@@ -6253,23 +7560,27 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D32" s="3">
-        <f>SMALL($A$2:$A$49,B32)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.325375874088508</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7204132064261666E-2</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6814430677366228E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.34623426359988257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>70</v>
       </c>
@@ -6281,23 +7592,27 @@
         <v>0.65625</v>
       </c>
       <c r="D33" s="3">
-        <f>SMALL($A$2:$A$49,B33)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.897079992125597</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5902941883901238E-2</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6050705421385207E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.40225006532172547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>62</v>
       </c>
@@ -6309,23 +7624,27 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="D34" s="3">
-        <f>SMALL($A$2:$A$49,B34)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.481974313594151</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2486271089391623E-2</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.517135936584663E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="3">
+        <f t="shared" si="5"/>
+        <v>0.45955824853388272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>46</v>
       </c>
@@ -6337,23 +7656,27 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D35" s="3">
-        <f>SMALL($A$2:$A$49,B35)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.08270401228863</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0460065527172411E-2</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4173496365455372E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51841798843925324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -6365,23 +7688,27 @@
         <v>0.71875</v>
       </c>
       <c r="D36" s="3">
-        <f>SMALL($A$2:$A$49,B36)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73.702360290107549</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8287365759281716E-2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3053648655301061E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57913216225555575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>71</v>
       </c>
@@ -6393,23 +7720,27 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D37" s="3">
-        <f>SMALL($A$2:$A$49,B37)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.344623528747917</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8287365759281716E-2</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1807674085480436E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="3">
+        <f t="shared" si="5"/>
+        <v>0.64206137527650065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>68</v>
       </c>
@@ -6421,23 +7752,27 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D38" s="3">
-        <f>SMALL($A$2:$A$49,B38)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.013962797768571</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8287365759281716E-2</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0430619478248981E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="3">
+        <f t="shared" si="5"/>
+        <v>0.70764350875288007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>82</v>
       </c>
@@ -6449,23 +7784,27 @@
         <v>0.78125</v>
       </c>
       <c r="D39" s="3">
-        <f>SMALL($A$2:$A$49,B39)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.715922047069299</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8287365759281716E-2</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8916536055444093E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="3">
+        <f t="shared" si="5"/>
+        <v>0.77642176114792805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>82</v>
       </c>
@@ -6477,23 +7816,27 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D40" s="3">
-        <f>SMALL($A$2:$A$49,B40)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.457544105484018</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8287365759281716E-2</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7258224946482241E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="3">
+        <f t="shared" si="5"/>
+        <v>0.84908619169171651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>63</v>
       </c>
@@ -6505,23 +7848,27 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D41" s="3">
-        <f>SMALL($A$2:$A$49,B41)</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.248022636374131</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.60186573746197E-2</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5446877082472463E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92653759925502799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>81</v>
       </c>
@@ -6533,23 +7880,27 @@
         <v>0.84375</v>
       </c>
       <c r="D42" s="3">
-        <f>SMALL($A$2:$A$49,B42)</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.099749764436638</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3703253534321417E-2</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3471546913443678E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0099901692495803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>76</v>
       </c>
@@ -6561,23 +7912,27 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D43" s="3">
-        <f>SMALL($A$2:$A$49,B43)</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.030092295588759</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3703253534321417E-2</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1318351480292319E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1011455083738539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>84</v>
       </c>
@@ -6589,23 +7944,27 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D44" s="3">
-        <f>SMALL($A$2:$A$49,B44)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.064612956035404</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9113764537571371E-2</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8969187034873106E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2025082629254482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -6617,23 +7976,27 @@
         <v>0.90625</v>
       </c>
       <c r="D45" s="3">
-        <f>SMALL($A$2:$A$49,B45)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.243446958019106</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6918483094850716E-2</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6399529185562114E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3180108973035369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -6645,23 +8008,27 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="D46" s="3">
-        <f>SMALL($A$2:$A$49,B46)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.635528403863205</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6918483094850716E-2</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3574299351018348E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4544076028560418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>81</v>
       </c>
@@ -6673,23 +8040,27 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="D47" s="3">
-        <f>SMALL($A$2:$A$49,B47)</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.376418499556863</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4832259508299174E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0438989808332371E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6249807216131984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>67</v>
       </c>
@@ -6701,23 +8072,27 @@
         <v>0.96875</v>
       </c>
       <c r="D48" s="3">
-        <f>SMALL($A$2:$A$49,B48)</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86.802935749130157</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4832259508299174E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8960168994314144E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8627318674216513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>76</v>
       </c>
@@ -6729,23 +8104,27 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="D49" s="3">
-        <f>SMALL($A$2:$A$49,B49)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.377926690052547</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1076210812933932E-2</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7060459386015626E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3109913382574208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <v>49</v>
       </c>
@@ -6754,23 +8133,27 @@
         <v>1.0104166666666667</v>
       </c>
       <c r="D50" s="3" t="e">
-        <f t="shared" ref="D50:D113" si="4">SMALL($A$2:$A$49,B50)</f>
+        <f t="shared" ref="D50:D113" si="6">SMALL($A$2:$A$49,B50)</f>
         <v>#NUM!</v>
       </c>
       <c r="E50" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="F50" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="G50" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H50" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <v>50</v>
       </c>
@@ -6779,23 +8162,27 @@
         <v>1.03125</v>
       </c>
       <c r="D51" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F51" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E51" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F51" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G51" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <v>51</v>
       </c>
@@ -6804,23 +8191,27 @@
         <v>1.0520833333333333</v>
       </c>
       <c r="D52" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F52" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G52" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E52" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F52" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G52" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <v>52</v>
       </c>
@@ -6829,23 +8220,27 @@
         <v>1.0729166666666667</v>
       </c>
       <c r="D53" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F53" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G53" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E53" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F53" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G53" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <v>53</v>
       </c>
@@ -6854,23 +8249,27 @@
         <v>1.09375</v>
       </c>
       <c r="D54" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F54" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G54" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E54" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F54" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G54" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <v>54</v>
       </c>
@@ -6879,23 +8278,27 @@
         <v>1.1145833333333333</v>
       </c>
       <c r="D55" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E55" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F55" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G55" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
         <v>55</v>
       </c>
@@ -6904,23 +8307,27 @@
         <v>1.1354166666666667</v>
       </c>
       <c r="D56" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E56" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F56" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G56" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
         <v>56</v>
       </c>
@@ -6929,23 +8336,27 @@
         <v>1.15625</v>
       </c>
       <c r="D57" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F57" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E57" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F57" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G57" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <v>57</v>
       </c>
@@ -6954,23 +8365,27 @@
         <v>1.1770833333333333</v>
       </c>
       <c r="D58" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F58" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E58" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F58" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G58" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <v>58</v>
       </c>
@@ -6979,23 +8394,27 @@
         <v>1.1979166666666667</v>
       </c>
       <c r="D59" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E59" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F59" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E59" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F59" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G59" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <v>59</v>
       </c>
@@ -7004,23 +8423,27 @@
         <v>1.21875</v>
       </c>
       <c r="D60" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E60" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F60" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G60" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E60" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F60" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G60" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <v>60</v>
       </c>
@@ -7029,23 +8452,27 @@
         <v>1.2395833333333333</v>
       </c>
       <c r="D61" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E61" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F61" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G61" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <v>61</v>
       </c>
@@ -7054,23 +8481,27 @@
         <v>1.2604166666666667</v>
       </c>
       <c r="D62" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E62" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F62" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G62" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <v>62</v>
       </c>
@@ -7079,23 +8510,27 @@
         <v>1.28125</v>
       </c>
       <c r="D63" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E63" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F63" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G63" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <v>63</v>
       </c>
@@ -7104,23 +8539,27 @@
         <v>1.3020833333333333</v>
       </c>
       <c r="D64" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E64" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F64" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G64" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H64" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <v>64</v>
       </c>
@@ -7129,2019 +8568,2343 @@
         <v>1.3229166666666667</v>
       </c>
       <c r="D65" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E65" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F65" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G65" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <v>65</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:C129" si="5">(B66-0.5)/$J$2</f>
+        <f t="shared" ref="C66:C129" si="7">(B66-0.5)/$K$2</f>
         <v>1.34375</v>
       </c>
       <c r="D66" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="E66" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F66" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G66" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <v>66</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3645833333333333</v>
       </c>
       <c r="D67" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E67" s="3" t="e">
-        <f t="shared" ref="E67:E130" si="6">_xlfn.NORM.INV(C67,$J$3,$J$4)</f>
+        <f t="shared" ref="E67:E130" si="8">_xlfn.NORM.INV(C67,$K$3,$K$4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F67" s="3" t="e">
-        <f t="shared" ref="F67:G130" si="7">_xlfn.NORM.DIST(D67,$J$3,$J$4,FALSE)</f>
+        <f t="shared" ref="F67:G130" si="9">_xlfn.NORM.DIST(D67,$K$3,$K$4,FALSE)</f>
         <v>#NUM!</v>
       </c>
       <c r="G67" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" s="3" t="e">
+        <f t="shared" ref="H67:H130" si="10">STANDARDIZE(E67,$K$3,$K$4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
         <v>67</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3854166666666667</v>
       </c>
       <c r="D68" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E68" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F68" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G68" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <v>68</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.40625</v>
       </c>
       <c r="D69" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E69" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F69" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G69" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="3">
         <v>69</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4270833333333333</v>
       </c>
       <c r="D70" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E70" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F70" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G70" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="3">
         <v>70</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4479166666666667</v>
       </c>
       <c r="D71" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E71" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F71" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G71" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>71</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.46875</v>
       </c>
       <c r="D72" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E72" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F72" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G72" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H72" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
         <v>72</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4895833333333333</v>
       </c>
       <c r="D73" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E73" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F73" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G73" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H73" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="3">
         <v>73</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5104166666666667</v>
       </c>
       <c r="D74" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E74" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F74" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G74" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H74" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="3">
         <v>74</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.53125</v>
       </c>
       <c r="D75" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E75" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F75" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G75" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
         <v>75</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5520833333333333</v>
       </c>
       <c r="D76" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E76" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F76" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G76" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H76" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="3">
         <v>76</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5729166666666667</v>
       </c>
       <c r="D77" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E77" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F77" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G77" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
         <v>77</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.59375</v>
       </c>
       <c r="D78" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E78" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F78" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G78" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H78" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B79" s="3">
         <v>78</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6145833333333333</v>
       </c>
       <c r="D79" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E79" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F79" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G79" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H79" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B80" s="3">
         <v>79</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6354166666666667</v>
       </c>
       <c r="D80" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E80" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F80" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G80" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H80" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="3">
         <v>80</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.65625</v>
       </c>
       <c r="D81" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E81" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F81" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G81" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H81" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="3">
         <v>81</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6770833333333333</v>
       </c>
       <c r="D82" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E82" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F82" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G82" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H82" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="3">
         <v>82</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6979166666666667</v>
       </c>
       <c r="D83" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E83" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F83" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G83" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H83" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="3">
         <v>83</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.71875</v>
       </c>
       <c r="D84" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E84" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F84" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G84" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H84" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" s="3">
         <v>84</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7395833333333333</v>
       </c>
       <c r="D85" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E85" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F85" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G85" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H85" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B86" s="3">
         <v>85</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7604166666666667</v>
       </c>
       <c r="D86" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E86" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F86" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G86" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H86" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="3">
         <v>86</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.78125</v>
       </c>
       <c r="D87" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E87" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F87" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G87" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H87" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="3">
         <v>87</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8020833333333333</v>
       </c>
       <c r="D88" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E88" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F88" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G88" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H88" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="3">
         <v>88</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8229166666666667</v>
       </c>
       <c r="D89" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E89" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F89" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G89" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H89" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B90" s="3">
         <v>89</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.84375</v>
       </c>
       <c r="D90" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E90" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F90" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G90" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H90" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="3">
         <v>90</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8645833333333333</v>
       </c>
       <c r="D91" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E91" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F91" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G91" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H91" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="3">
         <v>91</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8854166666666667</v>
       </c>
       <c r="D92" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E92" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F92" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G92" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H92" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="3">
         <v>92</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.90625</v>
       </c>
       <c r="D93" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E93" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F93" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G93" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H93" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="3">
         <v>93</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9270833333333333</v>
       </c>
       <c r="D94" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E94" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F94" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G94" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H94" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="3">
         <v>94</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9479166666666667</v>
       </c>
       <c r="D95" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E95" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F95" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G95" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H95" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B96" s="3">
         <v>95</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.96875</v>
       </c>
       <c r="D96" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E96" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F96" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G96" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H96" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="3">
         <v>96</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9895833333333333</v>
       </c>
       <c r="D97" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E97" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F97" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G97" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H97" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="3">
         <v>97</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0104166666666665</v>
       </c>
       <c r="D98" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E98" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F98" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G98" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H98" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="3">
         <v>98</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.03125</v>
       </c>
       <c r="D99" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E99" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F99" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G99" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H99" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B100" s="3">
         <v>99</v>
       </c>
       <c r="C100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0520833333333335</v>
       </c>
       <c r="D100" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E100" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F100" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G100" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H100" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B101" s="3">
         <v>100</v>
       </c>
       <c r="C101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0729166666666665</v>
       </c>
       <c r="D101" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E101" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F101" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G101" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H101" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B102" s="3">
         <v>101</v>
       </c>
       <c r="C102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.09375</v>
       </c>
       <c r="D102" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E102" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F102" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G102" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H102" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B103" s="3">
         <v>102</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1145833333333335</v>
       </c>
       <c r="D103" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E103" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F103" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G103" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H103" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B104" s="3">
         <v>103</v>
       </c>
       <c r="C104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1354166666666665</v>
       </c>
       <c r="D104" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E104" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F104" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G104" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H104" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B105" s="3">
         <v>104</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.15625</v>
       </c>
       <c r="D105" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E105" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F105" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G105" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H105" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B106" s="3">
         <v>105</v>
       </c>
       <c r="C106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1770833333333335</v>
       </c>
       <c r="D106" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E106" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F106" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G106" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H106" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B107" s="3">
         <v>106</v>
       </c>
       <c r="C107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1979166666666665</v>
       </c>
       <c r="D107" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E107" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F107" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G107" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H107" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B108" s="3">
         <v>107</v>
       </c>
       <c r="C108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.21875</v>
       </c>
       <c r="D108" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E108" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F108" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G108" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H108" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B109" s="3">
         <v>108</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2395833333333335</v>
       </c>
       <c r="D109" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E109" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F109" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G109" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H109" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B110" s="3">
         <v>109</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2604166666666665</v>
       </c>
       <c r="D110" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E110" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F110" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G110" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H110" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B111" s="3">
         <v>110</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.28125</v>
       </c>
       <c r="D111" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E111" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F111" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G111" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H111" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B112" s="3">
         <v>111</v>
       </c>
       <c r="C112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3020833333333335</v>
       </c>
       <c r="D112" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E112" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F112" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G112" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H112" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B113" s="3">
         <v>112</v>
       </c>
       <c r="C113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3229166666666665</v>
       </c>
       <c r="D113" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E113" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F113" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G113" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H113" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B114" s="3">
         <v>113</v>
       </c>
       <c r="C114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.34375</v>
       </c>
       <c r="D114" s="3" t="e">
-        <f t="shared" ref="D114:D145" si="8">SMALL($A$2:$A$49,B114)</f>
+        <f t="shared" ref="D114:D145" si="11">SMALL($A$2:$A$49,B114)</f>
         <v>#NUM!</v>
       </c>
       <c r="E114" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="F114" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G114" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H114" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B115" s="3">
         <v>114</v>
       </c>
       <c r="C115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3645833333333335</v>
       </c>
       <c r="D115" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E115" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E115" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F115" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G115" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H115" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B116" s="3">
         <v>115</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3854166666666665</v>
       </c>
       <c r="D116" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E116" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E116" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F116" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G116" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H116" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B117" s="3">
         <v>116</v>
       </c>
       <c r="C117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.40625</v>
       </c>
       <c r="D117" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E117" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E117" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F117" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G117" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H117" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B118" s="3">
         <v>117</v>
       </c>
       <c r="C118" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4270833333333335</v>
       </c>
       <c r="D118" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E118" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E118" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F118" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G118" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H118" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B119" s="3">
         <v>118</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4479166666666665</v>
       </c>
       <c r="D119" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E119" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E119" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F119" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G119" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H119" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B120" s="3">
         <v>119</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.46875</v>
       </c>
       <c r="D120" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E120" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E120" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F120" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G120" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H120" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B121" s="3">
         <v>120</v>
       </c>
       <c r="C121" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4895833333333335</v>
       </c>
       <c r="D121" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E121" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E121" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F121" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G121" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H121" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B122" s="3">
         <v>121</v>
       </c>
       <c r="C122" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5104166666666665</v>
       </c>
       <c r="D122" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E122" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E122" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F122" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G122" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H122" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B123" s="3">
         <v>122</v>
       </c>
       <c r="C123" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.53125</v>
       </c>
       <c r="D123" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E123" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E123" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F123" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G123" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H123" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B124" s="3">
         <v>123</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5520833333333335</v>
       </c>
       <c r="D124" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E124" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E124" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F124" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G124" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H124" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B125" s="3">
         <v>124</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5729166666666665</v>
       </c>
       <c r="D125" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E125" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E125" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F125" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G125" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H125" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B126" s="3">
         <v>125</v>
       </c>
       <c r="C126" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.59375</v>
       </c>
       <c r="D126" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E126" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E126" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F126" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G126" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H126" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B127" s="3">
         <v>126</v>
       </c>
       <c r="C127" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6145833333333335</v>
       </c>
       <c r="D127" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E127" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E127" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F127" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G127" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H127" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B128" s="3">
         <v>127</v>
       </c>
       <c r="C128" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6354166666666665</v>
       </c>
       <c r="D128" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E128" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E128" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F128" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G128" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H128" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B129" s="3">
         <v>128</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.65625</v>
       </c>
       <c r="D129" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E129" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E129" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F129" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G129" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H129" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B130" s="3">
         <v>129</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" ref="C130:C145" si="9">(B130-0.5)/$J$2</f>
+        <f t="shared" ref="C130:C145" si="12">(B130-0.5)/$K$2</f>
         <v>2.6770833333333335</v>
       </c>
       <c r="D130" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E130" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
-      <c r="E130" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
       <c r="F130" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="G130" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H130" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B131" s="3">
         <v>130</v>
       </c>
       <c r="C131" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.6979166666666665</v>
       </c>
       <c r="D131" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E131" s="3" t="e">
-        <f t="shared" ref="E131:E145" si="10">_xlfn.NORM.INV(C131,$J$3,$J$4)</f>
+        <f t="shared" ref="E131:E145" si="13">_xlfn.NORM.INV(C131,$K$3,$K$4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F131" s="3" t="e">
-        <f t="shared" ref="F131:G145" si="11">_xlfn.NORM.DIST(D131,$J$3,$J$4,FALSE)</f>
+        <f t="shared" ref="F131:G145" si="14">_xlfn.NORM.DIST(D131,$K$3,$K$4,FALSE)</f>
         <v>#NUM!</v>
       </c>
       <c r="G131" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H131" s="3" t="e">
+        <f t="shared" ref="H131:H145" si="15">STANDARDIZE(E131,$K$3,$K$4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B132" s="3">
         <v>131</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.71875</v>
       </c>
       <c r="D132" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E132" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F132" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G132" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H132" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B133" s="3">
         <v>132</v>
       </c>
       <c r="C133" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.7395833333333335</v>
       </c>
       <c r="D133" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E133" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F133" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G133" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H133" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B134" s="3">
         <v>133</v>
       </c>
       <c r="C134" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.7604166666666665</v>
       </c>
       <c r="D134" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E134" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F134" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G134" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H134" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B135" s="3">
         <v>134</v>
       </c>
       <c r="C135" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.78125</v>
       </c>
       <c r="D135" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E135" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F135" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G135" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H135" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B136" s="3">
         <v>135</v>
       </c>
       <c r="C136" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8020833333333335</v>
       </c>
       <c r="D136" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E136" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F136" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G136" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H136" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B137" s="3">
         <v>136</v>
       </c>
       <c r="C137" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8229166666666665</v>
       </c>
       <c r="D137" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E137" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F137" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G137" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H137" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B138" s="3">
         <v>137</v>
       </c>
       <c r="C138" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.84375</v>
       </c>
       <c r="D138" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E138" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F138" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G138" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H138" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B139" s="3">
         <v>138</v>
       </c>
       <c r="C139" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8645833333333335</v>
       </c>
       <c r="D139" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E139" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F139" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G139" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H139" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B140" s="3">
         <v>139</v>
       </c>
       <c r="C140" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.8854166666666665</v>
       </c>
       <c r="D140" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E140" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F140" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G140" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H140" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B141" s="3">
         <v>140</v>
       </c>
       <c r="C141" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.90625</v>
       </c>
       <c r="D141" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E141" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F141" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G141" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H141" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B142" s="3">
         <v>141</v>
       </c>
       <c r="C142" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9270833333333335</v>
       </c>
       <c r="D142" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E142" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F142" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G142" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H142" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B143" s="3">
         <v>142</v>
       </c>
       <c r="C143" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9479166666666665</v>
       </c>
       <c r="D143" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E143" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F143" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G143" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H143" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B144" s="3">
         <v>143</v>
       </c>
       <c r="C144" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.96875</v>
       </c>
       <c r="D144" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E144" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F144" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G144" s="3" t="e">
-        <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H144" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B145" s="3">
         <v>144</v>
       </c>
       <c r="C145" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9895833333333335</v>
       </c>
       <c r="D145" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="E145" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="F145" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="G145" s="3" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H145" s="3" t="e">
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
